--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A562C57-09AB-3849-9DFC-EAB3E67E44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66E413-D1AB-9143-A7A5-C190BA807B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="1" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
+    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefilter" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Clean &amp; Explore" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,184 +38,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+  <si>
+    <t>☒  Batch-wise</t>
+  </si>
+  <si>
+    <t>Metabolite feature is removed if there are more than x% missing QC samples.</t>
+  </si>
+  <si>
+    <t>☒  &lt; blank = missing</t>
+  </si>
+  <si>
+    <t>consider any QC sample with signal &lt; the blank threshold to be missing</t>
+  </si>
+  <si>
+    <t>% missing calculated per batch and remove peak if any batch has &gt; x% missing QCs</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>LogTransform</t>
+  </si>
+  <si>
+    <t>RemoveZeros</t>
+  </si>
+  <si>
+    <t>OutlierScope</t>
+  </si>
+  <si>
+    <t>OutlierMethod</t>
+  </si>
+  <si>
+    <t>OutlierCI</t>
+  </si>
+  <si>
+    <t>OutlierPostHoc</t>
+  </si>
+  <si>
+    <t>IntraBatchMode</t>
+  </si>
+  <si>
+    <t>InterBatchMode</t>
+  </si>
+  <si>
+    <t>QCRSCgammaRange</t>
+  </si>
+  <si>
+    <t>QCRSCcvMethod</t>
+  </si>
+  <si>
+    <t>QCRSCmcReps</t>
+  </si>
+  <si>
+    <t>CorrectionType</t>
+  </si>
+  <si>
+    <t>BlankRatioMethod</t>
+  </si>
+  <si>
+    <t>RelativeLOD</t>
+  </si>
+  <si>
+    <t>StatsParametric</t>
+  </si>
+  <si>
+    <t>ParallelProcess</t>
+  </si>
+  <si>
+    <t>Perform Log10 transformation on data before correction (to ensure normal distribution)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>"None","Percentile","Linear","Quadratic","Cubic"</t>
+  </si>
+  <si>
+    <t>"Local","Global", "Global&amp;Local"</t>
+  </si>
+  <si>
+    <t>value between between 0.9 and 0.99</t>
+  </si>
+  <si>
+    <t>"x:y:z"</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Subtract or divide the correction curve from the raw data. Optional depending on whether you believe the bias to be additive or multiplicative. Recommendation: If multiplicative &amp; Log10 transformation is used then Subtract.</t>
+  </si>
+  <si>
+    <t>For the corrected data. Either ignore outliers or replace with the QC median peak value (MPV) or remove (replace with "not a number" NaN).</t>
+  </si>
+  <si>
+    <t>Switch on the parallel processor to use mulitple processor cores to speed up the QCRSC engine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t>"true"/"false"</t>
+  </si>
+  <si>
+    <t>"Ignore","MPV","NaN"</t>
+  </si>
+  <si>
+    <t>"Median","Linear","Spline"</t>
+  </si>
+  <si>
+    <t>"QC","Reference"</t>
+  </si>
+  <si>
+    <t>"3-Fold","5-Fold","7-Fold","Leaveout"</t>
+  </si>
+  <si>
+    <t>"Subtract","Divide"</t>
+  </si>
+  <si>
+    <t>"QC","Median","Percentile"</t>
+  </si>
+  <si>
+    <t>Set the Confidence interval for the ploynomial methods above. 90%-99%</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Perform outlier detection per batch, across all the batches, or both</t>
+  </si>
+  <si>
+    <t>Choose whether summary statistics for each corrected feature are calculated using parametric (mean, standard deviation etc) or non-parametric methods (median, median absolute deviation etc).</t>
+  </si>
+  <si>
+    <t>The RelativeLOD is a multiplier (relative to the Blank) used to set a value below which a peak is considered background noise. i.e., "estimated LOD = max(Blank) x relativeLOD"</t>
+  </si>
+  <si>
+    <t>BlankRatio = 100*max(BlankValue)/SampleReferenceValue. 'QC' sets the SampleReferenceValue as the median QC value; 'Median' sets the SampleReferenceValue as the median Sample value; 'Percentile' sets BlankRatio = % of Samples &lt; max(BlankValue)*RelativeLOD (RelativeLOD is a user defined constant - default 1.5). In this instance missing values are considered Blank values</t>
+  </si>
+  <si>
+    <t>The number of Monte Carlo (random) resamples of the k-fold cross validation. The resulting cvMSE the mean of the generated set of cvMSEs.</t>
+  </si>
+  <si>
+    <t>Type of cross-validation used for optimising the smoothing parameter value.</t>
+  </si>
+  <si>
+    <t>The range of values (x to z) to search to determine to optimal correction curve (in increments of y). A value &gt;=4 results in a curve equivalent to a linear regression. A value &lt; 0 results in a highly nonlinear curve.</t>
+  </si>
+  <si>
+    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'.</t>
+  </si>
+  <si>
+    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple (interpolated) linear regression based on the QC values &amp; as such requires no smoothing optimisation. "Median" equalises the QC median across batches &amp; ignores within batch systematic change.</t>
+  </si>
+  <si>
+    <t>The 'linear'/quadratic/cubic' options fit a simple polynomial function to the QC data using robust least squares regression. Points outside the population confidence interval are deemed outliers. The 'percentile' option implements the standard non-parametric &lt;  Q1 − 1.5 IQR or  &gt; Q3 + 1.5 IQR outlier detection method on the QC samples.</t>
+  </si>
+  <si>
+    <t>There is no such thing as zero. Samples is either detected (value) or not detected (missing). Zeros mess up statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x% permissible missing QCs </t>
+  </si>
+  <si>
+    <t>Before/After</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter: </t>
+  </si>
+  <si>
+    <t>batch-wise/complete</t>
+  </si>
+  <si>
+    <t>PCA preprocessing:</t>
+  </si>
+  <si>
+    <t>log2(Fold wrt QC)</t>
+  </si>
+  <si>
+    <t>log10 Transform</t>
+  </si>
+  <si>
+    <t>PCA Missing value imputation:</t>
+  </si>
+  <si>
+    <t>KNN column</t>
+  </si>
+  <si>
+    <t>KNN row</t>
+  </si>
+  <si>
+    <t>blank/20%min</t>
+  </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>% missing thesh =</t>
+  </si>
+  <si>
+    <t>PCA projection:</t>
+  </si>
+  <si>
+    <t>Autoscale / Pareto scale</t>
+  </si>
+  <si>
+    <t>Project in QC samples</t>
+  </si>
+  <si>
+    <t>Project in Blank samples</t>
+  </si>
+  <si>
+    <t>Project in Reference samples</t>
+  </si>
+  <si>
+    <t>Should the filter bank calculate its statistics across all batches or calulate each batch individually and select the worst batch to represent that peak.</t>
+  </si>
+  <si>
+    <t>% allowed missing samples. e.g. if 20% then peak is removed if number of missing &gt; 20%.</t>
+  </si>
+  <si>
+    <t>Compare the performance statistics/visualisations before or after correction. Use this to convince yourself of the utility of the correction algorithm.</t>
+  </si>
+  <si>
+    <t>Preform autoscaling (mean centre then divide by standard deviation) or Pareto Scaling (mean centre then divide by sqrt(standard deviation). Scaling is always performed after the transformation.</t>
+  </si>
   <si>
     <r>
-      <t>x% permissible missing QCs</t>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> log10 transformation</t>
     </r>
   </si>
   <si>
-    <t>☒  Batch-wise</t>
-  </si>
-  <si>
-    <t>Metabolite feature is removed if there are more than x% missing QC samples.</t>
-  </si>
-  <si>
-    <t>☒  &lt; blank = missing</t>
-  </si>
-  <si>
-    <t>consider any QC sample with signal &lt; the blank threshold to be missing</t>
-  </si>
-  <si>
-    <t>% missing calculated per batch and remove peak if any batch has &gt; x% missing QCs</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>LogTransform</t>
-  </si>
-  <si>
-    <t>RemoveZeros</t>
-  </si>
-  <si>
-    <t>OutlierScope</t>
-  </si>
-  <si>
-    <t>OutlierMethod</t>
-  </si>
-  <si>
-    <t>OutlierCI</t>
-  </si>
-  <si>
-    <t>OutlierPostHoc</t>
-  </si>
-  <si>
-    <t>IntraBatchMode</t>
-  </si>
-  <si>
-    <t>InterBatchMode</t>
-  </si>
-  <si>
-    <t>QCRSCgammaRange</t>
-  </si>
-  <si>
-    <t>QCRSCcvMethod</t>
-  </si>
-  <si>
-    <t>QCRSCmcReps</t>
-  </si>
-  <si>
-    <t>CorrectionType</t>
-  </si>
-  <si>
-    <t>BlankRatioMethod</t>
-  </si>
-  <si>
-    <t>RelativeLOD</t>
-  </si>
-  <si>
-    <t>StatsParametric</t>
-  </si>
-  <si>
-    <t>ParallelProcess</t>
-  </si>
-  <si>
-    <t>Perform Log10 transformation on data before correction (to ensure normal distribution)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>"None","Percentile","Linear","Quadratic","Cubic"</t>
-  </si>
-  <si>
-    <t>"Local","Global", "Global&amp;Local"</t>
-  </si>
-  <si>
-    <t>value between between 0.9 and 0.99</t>
-  </si>
-  <si>
-    <t>"x:y:z"</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Subtract or divide the correction curve from the raw data. Optional depending on whether you believe the bias to be additive or multiplicative. Recommendation: If multiplicative &amp; Log10 transformation is used then Subtract.</t>
-  </si>
-  <si>
-    <t>For the corrected data. Either ignore outliers or replace with the QC median peak value (MPV) or remove (replace with "not a number" NaN).</t>
-  </si>
-  <si>
-    <t>Switch on the parallel processor to use mulitple processor cores to speed up the QCRSC engine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value </t>
-  </si>
-  <si>
-    <t>"true"/"false"</t>
-  </si>
-  <si>
-    <t>"Ignore","MPV","NaN"</t>
-  </si>
-  <si>
-    <t>"Median","Linear","Spline"</t>
-  </si>
-  <si>
-    <t>"QC","Reference"</t>
-  </si>
-  <si>
-    <t>"3-Fold","5-Fold","7-Fold","Leaveout"</t>
-  </si>
-  <si>
-    <t>"Subtract","Divide"</t>
-  </si>
-  <si>
-    <t>"QC","Median","Percentile"</t>
-  </si>
-  <si>
-    <t>Set the Confidence interval for the ploynomial methods above. 90%-99%</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Perform outlier detection per batch, across all the batches, or both</t>
-  </si>
-  <si>
-    <t>Choose whether summary statistics for each corrected feature are calculated using parametric (mean, standard deviation etc) or non-parametric methods (median, median absolute deviation etc).</t>
-  </si>
-  <si>
-    <t>The RelativeLOD is a multiplier (relative to the Blank) used to set a value below which a peak is considered background noise. i.e., "estimated LOD = max(Blank) x relativeLOD"</t>
-  </si>
-  <si>
-    <t>BlankRatio = 100*max(BlankValue)/SampleReferenceValue. 'QC' sets the SampleReferenceValue as the median QC value; 'Median' sets the SampleReferenceValue as the median Sample value; 'Percentile' sets BlankRatio = % of Samples &lt; max(BlankValue)*RelativeLOD (RelativeLOD is a user defined constant - default 1.5). In this instance missing values are considered Blank values</t>
-  </si>
-  <si>
-    <t>The number of Monte Carlo (random) resamples of the k-fold cross validation. The resulting cvMSE the mean of the generated set of cvMSEs.</t>
-  </si>
-  <si>
-    <t>Type of cross-validation used for optimising the smoothing parameter value.</t>
-  </si>
-  <si>
-    <t>The range of values (x to z) to search to determine to optimal correction curve (in increments of y). A value &gt;=4 results in a curve equivalent to a linear regression. A value &lt; 0 results in a highly nonlinear curve.</t>
-  </si>
-  <si>
-    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'.</t>
-  </si>
-  <si>
-    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple (interpolated) linear regression based on the QC values &amp; as such requires no smoothing optimisation. "Median" equalises the QC median across batches &amp; ignores within batch systematic change.</t>
-  </si>
-  <si>
-    <t>The 'linear'/quadratic/cubic' options fit a simple polynomial function to the QC data using robust least squares regression. Points outside the population confidence interval are deemed outliers. The 'percentile' option implements the standard non-parametric &lt;  Q1 − 1.5 IQR or  &gt; Q3 + 1.5 IQR outlier detection method on the QC samples.</t>
-  </si>
-  <si>
-    <t>There is no such thing as zero. Samples is either detected (value) or not detected (missing). Zeros mess up statistics.</t>
+    <t>First perform log2 fold change - with fold = sample value / mean QC value.</t>
+  </si>
+  <si>
+    <t>KNN missing value imputation replacing with the nearest metabolite feature</t>
+  </si>
+  <si>
+    <t>KNN missing value imputation replacing with the nearest sample</t>
+  </si>
+  <si>
+    <t>replaces missing values with a weighted mean of the k nearest-neighbor columns/rows. KNN imputation always performed after transformation &amp; scaling.</t>
+  </si>
+  <si>
+    <t>replaces missing values with the maximum blank value for that peak or if no blanks detected 20% of the lowest value. blank/20%min is always performed before transformation or scaling.</t>
+  </si>
+  <si>
+    <t>PCA model is generated using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
   </si>
 </sst>
 </file>
@@ -231,40 +325,66 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -410,10 +530,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -425,7 +543,24 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -435,13 +570,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -450,69 +585,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,39 +1030,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
+      <c r="B1" s="38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -900,204 +1074,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1440AF-6D0E-2548-A770-1EACB8A69641}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A28" zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="54" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="C5" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="17" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66E413-D1AB-9143-A7A5-C190BA807B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE73EC3-EE28-1147-9BC3-9A68B989EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
+    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="1" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefilter" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>"Ignore","MPV","NaN"</t>
   </si>
   <si>
-    <t>"Median","Linear","Spline"</t>
-  </si>
-  <si>
     <t>"QC","Reference"</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'.</t>
-  </si>
-  <si>
-    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple (interpolated) linear regression based on the QC values &amp; as such requires no smoothing optimisation. "Median" equalises the QC median across batches &amp; ignores within batch systematic change.</t>
   </si>
   <si>
     <t>The 'linear'/quadratic/cubic' options fit a simple polynomial function to the QC data using robust least squares regression. Points outside the population confidence interval are deemed outliers. The 'percentile' option implements the standard non-parametric &lt;  Q1 − 1.5 IQR or  &gt; Q3 + 1.5 IQR outlier detection method on the QC samples.</t>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>PCA model is generated using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
+  </si>
+  <si>
+    <t>"Mean","Linear","Spline"</t>
+  </si>
+  <si>
+    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple (interpolated) linear regression based on the QC values &amp; as such requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change.</t>
   </si>
 </sst>
 </file>
@@ -661,32 +661,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,16 +1034,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1440AF-6D0E-2548-A770-1EACB8A69641}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="107" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1086,14 +1086,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1178,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1200,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
@@ -1293,136 +1293,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>43</v>
+      <c r="B1" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="31"/>
+      <c r="A18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdbrdhrst/GitHub/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE73EC3-EE28-1147-9BC3-9A68B989EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14B56B-0285-F94E-9708-48D6517BB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="1" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
+    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefilter" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>☒  Batch-wise</t>
   </si>
@@ -67,9 +67,6 @@
     <t>RemoveZeros</t>
   </si>
   <si>
-    <t>OutlierScope</t>
-  </si>
-  <si>
     <t>OutlierMethod</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>"None","Percentile","Linear","Quadratic","Cubic"</t>
   </si>
   <si>
-    <t>"Local","Global", "Global&amp;Local"</t>
-  </si>
-  <si>
     <t>value between between 0.9 and 0.99</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Perform outlier detection per batch, across all the batches, or both</t>
-  </si>
-  <si>
     <t>Choose whether summary statistics for each corrected feature are calculated using parametric (mean, standard deviation etc) or non-parametric methods (median, median absolute deviation etc).</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
   </si>
   <si>
     <t>Project in Reference samples</t>
-  </si>
-  <si>
-    <t>Should the filter bank calculate its statistics across all batches or calulate each batch individually and select the worst batch to represent that peak.</t>
   </si>
   <si>
     <t>% allowed missing samples. e.g. if 20% then peak is removed if number of missing &gt; 20%.</t>
@@ -308,7 +296,10 @@
     <t>"Mean","Linear","Spline"</t>
   </si>
   <si>
-    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple (interpolated) linear regression based on the QC values &amp; as such requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change.</t>
+    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple Robust (bisquare) linear regression based on the QC values &amp; requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change.</t>
+  </si>
+  <si>
+    <t>Should the filter bank calculate its peak-wise statistics across all batches or calulate each batch individually and then summarise based on the dropdown option (e.g. "Mean" = the mean of all the batch statistics &amp; "Max" = the poorest statistic comparing all batches).</t>
   </si>
 </sst>
 </file>
@@ -585,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -625,9 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1034,34 +1022,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1072,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1440AF-6D0E-2548-A770-1EACB8A69641}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1086,14 +1074,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>42</v>
+      <c r="A1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1101,10 +1089,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -1112,24 +1100,24 @@
         <v>8</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>26</v>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1137,139 +1125,128 @@
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="17" t="s">
         <v>32</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1282,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1293,136 +1270,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>42</v>
+      <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>76</v>
+      <c r="A7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>75</v>
+      <c r="A8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>74</v>
+      <c r="A9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="25"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="38"/>
+      <c r="A18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdbrdhrst/GitHub/QC-MXP/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14B56B-0285-F94E-9708-48D6517BB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFD0F84-01D1-6849-974D-6DD7B29F2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
-  <si>
-    <t>☒  Batch-wise</t>
-  </si>
-  <si>
-    <t>Metabolite feature is removed if there are more than x% missing QC samples.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>☒  &lt; blank = missing</t>
   </si>
@@ -52,9 +46,6 @@
     <t>consider any QC sample with signal &lt; the blank threshold to be missing</t>
   </si>
   <si>
-    <t>% missing calculated per batch and remove peak if any batch has &gt; x% missing QCs</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>"Ignore","MPV","NaN"</t>
   </si>
   <si>
-    <t>"QC","Reference"</t>
-  </si>
-  <si>
     <t>"3-Fold","5-Fold","7-Fold","Leaveout"</t>
   </si>
   <si>
@@ -181,33 +169,18 @@
     <t>The range of values (x to z) to search to determine to optimal correction curve (in increments of y). A value &gt;=4 results in a curve equivalent to a linear regression. A value &lt; 0 results in a highly nonlinear curve.</t>
   </si>
   <si>
-    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'.</t>
-  </si>
-  <si>
     <t>The 'linear'/quadratic/cubic' options fit a simple polynomial function to the QC data using robust least squares regression. Points outside the population confidence interval are deemed outliers. The 'percentile' option implements the standard non-parametric &lt;  Q1 − 1.5 IQR or  &gt; Q3 + 1.5 IQR outlier detection method on the QC samples.</t>
   </si>
   <si>
     <t>There is no such thing as zero. Samples is either detected (value) or not detected (missing). Zeros mess up statistics.</t>
   </si>
   <si>
-    <t xml:space="preserve">x% permissible missing QCs </t>
-  </si>
-  <si>
     <t>Before/After</t>
   </si>
   <si>
-    <t xml:space="preserve">Filter: </t>
-  </si>
-  <si>
-    <t>batch-wise/complete</t>
-  </si>
-  <si>
     <t>PCA preprocessing:</t>
   </si>
   <si>
-    <t>log2(Fold wrt QC)</t>
-  </si>
-  <si>
     <t>log10 Transform</t>
   </si>
   <si>
@@ -244,40 +217,9 @@
     <t>Project in Reference samples</t>
   </si>
   <si>
-    <t>% allowed missing samples. e.g. if 20% then peak is removed if number of missing &gt; 20%.</t>
-  </si>
-  <si>
     <t>Compare the performance statistics/visualisations before or after correction. Use this to convince yourself of the utility of the correction algorithm.</t>
   </si>
   <si>
-    <t>Preform autoscaling (mean centre then divide by standard deviation) or Pareto Scaling (mean centre then divide by sqrt(standard deviation). Scaling is always performed after the transformation.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> log10 transformation</t>
-    </r>
-  </si>
-  <si>
-    <t>First perform log2 fold change - with fold = sample value / mean QC value.</t>
-  </si>
-  <si>
     <t>KNN missing value imputation replacing with the nearest metabolite feature</t>
   </si>
   <si>
@@ -293,20 +235,83 @@
     <t>PCA model is generated using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
   </si>
   <si>
-    <t>"Mean","Linear","Spline"</t>
-  </si>
-  <si>
-    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple Robust (bisquare) linear regression based on the QC values &amp; requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change.</t>
-  </si>
-  <si>
-    <t>Should the filter bank calculate its peak-wise statistics across all batches or calulate each batch individually and then summarise based on the dropdown option (e.g. "Mean" = the mean of all the batch statistics &amp; "Max" = the poorest statistic comparing all batches).</t>
+    <t>% allowable missing QCs &lt;=</t>
+  </si>
+  <si>
+    <t>↓ Every Batch</t>
+  </si>
+  <si>
+    <t>↓ Any Batch</t>
+  </si>
+  <si>
+    <t>Metabolite feature is kept if there are less than than the specified % missing QC samples.</t>
+  </si>
+  <si>
+    <t>↓ Complete</t>
+  </si>
+  <si>
+    <t>% missing QC calculated per batch and peak kept if every batch has &lt;= specified % missing QCs</t>
+  </si>
+  <si>
+    <t>% missing QC calculated per batch and peak kept if any batch has &lt;= specified % missing QCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% missing QC calculated across all batches </t>
+  </si>
+  <si>
+    <t>"Mean","Linear","Spline","Sample"</t>
+  </si>
+  <si>
+    <t>"QC","Reference","Sample"</t>
+  </si>
+  <si>
+    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple Robust (bisquare) linear regression based on the QC values &amp; requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change. "Sample" ignores the QCs and corrects using linear regression based on the samples labelled 'Sample' ('Sample' option is not recommended).</t>
+  </si>
+  <si>
+    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'. 'Sample' = both the intra-batch &amp; inter-batch correction uses the samples labelled as 'Sample' ('Sample' option is not recommended).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Filter: </t>
+  </si>
+  <si>
+    <t>Every-Batch/Any-Batch/Complete</t>
+  </si>
+  <si>
+    <t>Should the filter bank calculate its peak-wise statistics across all batches (complete) or calulate for each batch individually and if 'Every Batch' then every batch must pass the % missing threshold for a given peak to be retained, else if 'Any Batch' then only one batch as to pass the threshold for the peak to be kept.</t>
+  </si>
+  <si>
+    <t>Remove peaks where there are low number of total samples.</t>
+  </si>
+  <si>
+    <t>% allowed missing Samples. e.g. if 20% then a given peak is removed if number of missing samples labeled 'Sample' &gt; 20%.</t>
+  </si>
+  <si>
+    <t>apply a log10 transformation to all data.</t>
+  </si>
+  <si>
+    <t>Preform autoscaling (mean centre then divide by standard deviation) or Pareto Scaling (mean centre then divide by sqrt(standard deviation) to each individual peak. Scaling is always performed after the transformation.</t>
+  </si>
+  <si>
+    <t>Filter Bank:</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the dial setting to the peak selection filter. </t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>leave on 'Complete' unless performing large scale studies over many batches. For a given peak: 'Max qcRSD' deferes to the using the stats from the worst batch (batch with highest qcRSD) for all filter settings. 'minQC' deferes to the best batch (batch with lowest qcRSD) for all filter settings. 'Median qcRSD' deferes to the most representative batch for all filter settings. 'Complete' calulates the stats across all batches.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -324,13 +329,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -626,14 +624,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -643,15 +640,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -669,10 +657,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,48 +1009,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE47B5D-1EEA-F146-A9A9-111FDB4E8BA0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>5</v>
+      <c r="A1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1079,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1074,179 +1090,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>40</v>
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="160" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1257,153 +1273,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="73.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B16" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="24"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="36"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="37"/>
+      <c r="B20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFD0F84-01D1-6849-974D-6DD7B29F2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E11DC-8512-7347-9A04-113236850367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2700" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefilter" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="QC Correction" sheetId="2" r:id="rId2"/>
     <sheet name="Clean &amp; Explore" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
-  <si>
-    <t>☒  &lt; blank = missing</t>
-  </si>
-  <si>
-    <t>consider any QC sample with signal &lt; the blank threshold to be missing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Action</t>
   </si>
@@ -52,54 +46,6 @@
     <t>Option</t>
   </si>
   <si>
-    <t>LogTransform</t>
-  </si>
-  <si>
-    <t>RemoveZeros</t>
-  </si>
-  <si>
-    <t>OutlierMethod</t>
-  </si>
-  <si>
-    <t>OutlierCI</t>
-  </si>
-  <si>
-    <t>OutlierPostHoc</t>
-  </si>
-  <si>
-    <t>IntraBatchMode</t>
-  </si>
-  <si>
-    <t>InterBatchMode</t>
-  </si>
-  <si>
-    <t>QCRSCgammaRange</t>
-  </si>
-  <si>
-    <t>QCRSCcvMethod</t>
-  </si>
-  <si>
-    <t>QCRSCmcReps</t>
-  </si>
-  <si>
-    <t>CorrectionType</t>
-  </si>
-  <si>
-    <t>BlankRatioMethod</t>
-  </si>
-  <si>
-    <t>RelativeLOD</t>
-  </si>
-  <si>
-    <t>StatsParametric</t>
-  </si>
-  <si>
-    <t>ParallelProcess</t>
-  </si>
-  <si>
-    <t>Perform Log10 transformation on data before correction (to ensure normal distribution)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -109,36 +55,15 @@
     <t>value between between 0.9 and 0.99</t>
   </si>
   <si>
-    <t>"x:y:z"</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>Subtract or divide the correction curve from the raw data. Optional depending on whether you believe the bias to be additive or multiplicative. Recommendation: If multiplicative &amp; Log10 transformation is used then Subtract.</t>
-  </si>
-  <si>
-    <t>For the corrected data. Either ignore outliers or replace with the QC median peak value (MPV) or remove (replace with "not a number" NaN).</t>
-  </si>
-  <si>
-    <t>Switch on the parallel processor to use mulitple processor cores to speed up the QCRSC engine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value </t>
-  </si>
-  <si>
     <t>"true"/"false"</t>
   </si>
   <si>
-    <t>"Ignore","MPV","NaN"</t>
-  </si>
-  <si>
     <t>"3-Fold","5-Fold","7-Fold","Leaveout"</t>
   </si>
   <si>
-    <t>"Subtract","Divide"</t>
-  </si>
-  <si>
     <t>"QC","Median","Percentile"</t>
   </si>
   <si>
@@ -151,12 +76,6 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Choose whether summary statistics for each corrected feature are calculated using parametric (mean, standard deviation etc) or non-parametric methods (median, median absolute deviation etc).</t>
-  </si>
-  <si>
-    <t>The RelativeLOD is a multiplier (relative to the Blank) used to set a value below which a peak is considered background noise. i.e., "estimated LOD = max(Blank) x relativeLOD"</t>
-  </si>
-  <si>
     <t>BlankRatio = 100*max(BlankValue)/SampleReferenceValue. 'QC' sets the SampleReferenceValue as the median QC value; 'Median' sets the SampleReferenceValue as the median Sample value; 'Percentile' sets BlankRatio = % of Samples &lt; max(BlankValue)*RelativeLOD (RelativeLOD is a user defined constant - default 1.5). In this instance missing values are considered Blank values</t>
   </si>
   <si>
@@ -166,9 +85,6 @@
     <t>Type of cross-validation used for optimising the smoothing parameter value.</t>
   </si>
   <si>
-    <t>The range of values (x to z) to search to determine to optimal correction curve (in increments of y). A value &gt;=4 results in a curve equivalent to a linear regression. A value &lt; 0 results in a highly nonlinear curve.</t>
-  </si>
-  <si>
     <t>The 'linear'/quadratic/cubic' options fit a simple polynomial function to the QC data using robust least squares regression. Points outside the population confidence interval are deemed outliers. The 'percentile' option implements the standard non-parametric &lt;  Q1 − 1.5 IQR or  &gt; Q3 + 1.5 IQR outlier detection method on the QC samples.</t>
   </si>
   <si>
@@ -199,15 +115,9 @@
     <t>k =</t>
   </si>
   <si>
-    <t>% missing thesh =</t>
-  </si>
-  <si>
     <t>PCA projection:</t>
   </si>
   <si>
-    <t>Autoscale / Pareto scale</t>
-  </si>
-  <si>
     <t>Project in QC samples</t>
   </si>
   <si>
@@ -220,33 +130,18 @@
     <t>Compare the performance statistics/visualisations before or after correction. Use this to convince yourself of the utility of the correction algorithm.</t>
   </si>
   <si>
-    <t>KNN missing value imputation replacing with the nearest metabolite feature</t>
-  </si>
-  <si>
     <t>KNN missing value imputation replacing with the nearest sample</t>
   </si>
   <si>
     <t>replaces missing values with a weighted mean of the k nearest-neighbor columns/rows. KNN imputation always performed after transformation &amp; scaling.</t>
   </si>
   <si>
-    <t>replaces missing values with the maximum blank value for that peak or if no blanks detected 20% of the lowest value. blank/20%min is always performed before transformation or scaling.</t>
-  </si>
-  <si>
-    <t>PCA model is generated using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
-  </si>
-  <si>
-    <t>% allowable missing QCs &lt;=</t>
-  </si>
-  <si>
     <t>↓ Every Batch</t>
   </si>
   <si>
     <t>↓ Any Batch</t>
   </si>
   <si>
-    <t>Metabolite feature is kept if there are less than than the specified % missing QC samples.</t>
-  </si>
-  <si>
     <t>↓ Complete</t>
   </si>
   <si>
@@ -265,53 +160,148 @@
     <t>"QC","Reference","Sample"</t>
   </si>
   <si>
-    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple Robust (bisquare) linear regression based on the QC values &amp; requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change. "Sample" ignores the QCs and corrects using linear regression based on the samples labelled 'Sample' ('Sample' option is not recommended).</t>
-  </si>
-  <si>
-    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'. 'Sample' = both the intra-batch &amp; inter-batch correction uses the samples labelled as 'Sample' ('Sample' option is not recommended).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Missing Filter: </t>
   </si>
   <si>
     <t>Every-Batch/Any-Batch/Complete</t>
   </si>
   <si>
-    <t>Should the filter bank calculate its peak-wise statistics across all batches (complete) or calulate for each batch individually and if 'Every Batch' then every batch must pass the % missing threshold for a given peak to be retained, else if 'Any Batch' then only one batch as to pass the threshold for the peak to be kept.</t>
-  </si>
-  <si>
-    <t>Remove peaks where there are low number of total samples.</t>
-  </si>
-  <si>
-    <t>% allowed missing Samples. e.g. if 20% then a given peak is removed if number of missing samples labeled 'Sample' &gt; 20%.</t>
-  </si>
-  <si>
     <t>apply a log10 transformation to all data.</t>
   </si>
   <si>
-    <t>Preform autoscaling (mean centre then divide by standard deviation) or Pareto Scaling (mean centre then divide by sqrt(standard deviation) to each individual peak. Scaling is always performed after the transformation.</t>
-  </si>
-  <si>
     <t>Filter Bank:</t>
   </si>
   <si>
     <t>ON/OFF</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply the dial setting to the peak selection filter. </t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
-    <t>leave on 'Complete' unless performing large scale studies over many batches. For a given peak: 'Max qcRSD' deferes to the using the stats from the worst batch (batch with highest qcRSD) for all filter settings. 'minQC' deferes to the best batch (batch with lowest qcRSD) for all filter settings. 'Median qcRSD' deferes to the most representative batch for all filter settings. 'Complete' calulates the stats across all batches.</t>
+    <t>% QCs missing per feature &lt;=</t>
+  </si>
+  <si>
+    <t>Feature is kept if there are less than (or equal to) the specified % of missing QC samples.</t>
+  </si>
+  <si>
+    <t>☑ QC &lt; LOQ* = missing</t>
+  </si>
+  <si>
+    <t>consider any QC sample with signal &lt; the LOQ* to be missing</t>
+  </si>
+  <si>
+    <t>LOQ* = ☐ x max(Blank)</t>
+  </si>
+  <si>
+    <t>estimated Limit Of Quantification = ☐ x maximum Blank value</t>
+  </si>
+  <si>
+    <r>
+      <t>Perform Log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transformation on data before correction (to ensure normal distribution)</t>
+    </r>
+  </si>
+  <si>
+    <t>Log Transformed Correction</t>
+  </si>
+  <si>
+    <t>Remove Zeros</t>
+  </si>
+  <si>
+    <t>QC Outlier Detection Method</t>
+  </si>
+  <si>
+    <t>QC Outlier Detection %CI</t>
+  </si>
+  <si>
+    <t>QC Outlier Replacement Strategy</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Within-Batch Correction Mode</t>
+  </si>
+  <si>
+    <t>Between-Batch Correction Mode</t>
+  </si>
+  <si>
+    <t>QCRSC Cross Validation Method</t>
+  </si>
+  <si>
+    <t>QCRSC Monte Carlo repetitions</t>
+  </si>
+  <si>
+    <t>Blank Ratio Method</t>
+  </si>
+  <si>
+    <t>"Ignore","Median","NaN"</t>
+  </si>
+  <si>
+    <t>For the corrected data. Either ignore outliers or replace with the QC median value or remove (replace with "not a number" NaN).</t>
+  </si>
+  <si>
+    <t>QC' = both the intra- and inter-batch based on the QC samples; 'Reference' = intra-batch correction based on the QCs but the inter-batch correction uses the samples labelled as 'Reference'. 'Sample' = both the intra-batch &amp; inter-batch correction uses the samples labelled as 'Sample'.                                                                 N.B. The 'Sample' option is not recommended and is primarily included to illustrate how poor this approach is to between-batch correction (or as a last resort for data with no QCs).</t>
+  </si>
+  <si>
+    <t>Three correction modes. "Spline" is the default QCRSC algorithm that requires optimisation of the smoothing parameter. "Linear" is a simple Robust (bisquare) linear regression based on the QC values &amp; requires no smoothing optimisation. "Mean" equalises the QC mean across batches &amp; ignores within batch systematic change. "Sample" ignores the QCs and corrects using linear regression based on the samples labelled 'Sample'.                      N.B. If the number of QC samples in a batch is 5 or less then the Spline Algorithm switches to a linear correction (N&lt;=5 is too few for effectively fitting a non-linear curve with cross-validation).  N.B. The 'Sample' option is not recommended and is primarily included to illustrate how poor this approach is to within-batch correction (or as a last resort for data with no QCs).</t>
+  </si>
+  <si>
+    <t>% missing per feature &lt;=</t>
+  </si>
+  <si>
+    <t>Autoscale / Mean Center</t>
+  </si>
+  <si>
+    <t>KNN missing value imputation replacing with the nearest feature</t>
+  </si>
+  <si>
+    <t>% allowed missing Samples. e.g. if 20% then a given feature is removed if number of missing samples labeled 'Sample' &gt; 20%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the dial setting to the feature selection filter. </t>
+  </si>
+  <si>
+    <t>Leave on 'Complete' unless performing large scale studies over many batches. For a given feature: 'Max qcRSD' deferes to the using the stats from the worst batch (batch with highest qcRSD) for all filter settings. 'minQC' deferes to the best batch (batch with lowest qcRSD) for all filter settings. 'Median qcRSD' deferes to the most representative batch for all filter settings. 'Complete' calulates the stats across all batches.</t>
+  </si>
+  <si>
+    <t>Perform autoscaling (mean center then divide by standard deviation) or just mean center to each individual feature. Scaling is always performed after the transformation.</t>
+  </si>
+  <si>
+    <t>replaces missing values with the maximum blank value for that feature or if no blanks detected 20% of the lowest value. blank/20%min is always performed before transformation or scaling.</t>
+  </si>
+  <si>
+    <t>Remove features where there are high number of missing values.</t>
+  </si>
+  <si>
+    <t>Set whether the filter bank calculates its feature-wise statistics across all batches (complete) or calulates for each batch individually. If 'Every Batch' then every batch must pass the % missing threshold for a given feature to be retained, else if 'Any Batch' then only one batch as to pass the threshold for the feature to be kept.</t>
+  </si>
+  <si>
+    <t>The PCA model is created using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -339,6 +329,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -373,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -570,11 +565,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -660,17 +670,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1009,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE47B5D-1EEA-F146-A9A9-111FDB4E8BA0}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1023,50 +1037,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>66</v>
+      <c r="A3" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>67</v>
+      <c r="A4" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>69</v>
+      <c r="A5" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1076,193 +1098,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1440AF-6D0E-2548-A770-1EACB8A69641}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:C16"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="54" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="260" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1287,151 +1254,151 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>54</v>
+      <c r="A17" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="37"/>
+      <c r="A20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/res/CheatSheets.xlsx
+++ b/res/CheatSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdbrdhrst/GitHub/QC-MXP/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E11DC-8512-7347-9A04-113236850367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF306F7A-6081-A240-92C3-9CEFBC36EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="27700" windowHeight="16940" activeTab="2" xr2:uid="{D81271CA-93EF-834F-B9E5-659B6E5E8FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefilter" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Action</t>
   </si>
@@ -279,9 +279,6 @@
     <t xml:space="preserve">Apply the dial setting to the feature selection filter. </t>
   </si>
   <si>
-    <t>Leave on 'Complete' unless performing large scale studies over many batches. For a given feature: 'Max qcRSD' deferes to the using the stats from the worst batch (batch with highest qcRSD) for all filter settings. 'minQC' deferes to the best batch (batch with lowest qcRSD) for all filter settings. 'Median qcRSD' deferes to the most representative batch for all filter settings. 'Complete' calulates the stats across all batches.</t>
-  </si>
-  <si>
     <t>Perform autoscaling (mean center then divide by standard deviation) or just mean center to each individual feature. Scaling is always performed after the transformation.</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>The PCA model is created using only the Sample data. This removes any possible bias from the QC, Blank, or Reference samples. The QC, Blank, or Reference sample data can applied to the PCA model (projected through) and plotted with the Sample data.</t>
+  </si>
+  <si>
+    <t>QC/REF</t>
+  </si>
+  <si>
+    <t>When Reference samples are included then you can choose to filter on the QC stats or Reference statistics.</t>
+  </si>
+  <si>
+    <t>Leave on 'Complete' unless performing large scale studies over many batches. For QC filtering: 'Median' / 'Min' / 'Max' referes to filtering on the median/max/min batch QC statistics. Alternatively choose a specific (representative) batch to filter on. 'Complete' calulates the stats across all batches. For Reference filtering only the 'Complete' option is available.</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14340D4-650A-D548-A81E-733CEBC5D446}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1271,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -1273,7 +1279,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,103 +1312,111 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B9" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="16" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="B17" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>78</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
